--- a/EA_QUEST3/Randomize parameters.xlsx
+++ b/EA_QUEST3/Randomize parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33689\Documents\GitHub\Exam-Applied-Macroeconomics\EA_QUEST3\EA_QUEST3_rep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33689\Documents\GitHub\Exam-Applied-Macroeconomics\EA_QUEST3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DD48CB-B663-4E6E-951D-9124AB29B527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2B029-5291-49E5-AD48-6C3836877B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{83C6AE5A-7379-4CA1-8CAA-9D1ACFE04297}"/>
   </bookViews>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="141">
   <si>
     <t>A2E = 0.0453</t>
   </si>
@@ -493,9 +493,6 @@
     <t>Random function</t>
   </si>
   <si>
-    <t>Text for code</t>
-  </si>
-  <si>
     <t>Posterior_variance</t>
   </si>
   <si>
@@ -530,6 +527,15 @@
   </si>
   <si>
     <t>Positive Posterior_mean</t>
+  </si>
+  <si>
+    <t>Set param value</t>
+  </si>
+  <si>
+    <t>Draw vector (from prior law)</t>
+  </si>
+  <si>
+    <t>Draw vector (from normal law)</t>
   </si>
 </sst>
 </file>
@@ -618,7 +624,13 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -825,66 +837,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BC17A61-E19F-47A7-AB81-DB16C44409FF}" name="Transform" displayName="Transform" ref="B9:T57" totalsRowShown="0">
-  <autoFilter ref="B9:T57" xr:uid="{3BC17A61-E19F-47A7-AB81-DB16C44409FF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BC17A61-E19F-47A7-AB81-DB16C44409FF}" name="Transform" displayName="Transform" ref="B9:V57" totalsRowShown="0">
+  <autoFilter ref="B9:V57" xr:uid="{3BC17A61-E19F-47A7-AB81-DB16C44409FF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:T57">
     <sortCondition ref="F9:F57"/>
   </sortState>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{93352111-0C15-4E5A-BC1B-66C643DECE9B}" name="Text from code" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{47A31264-A734-4BA2-81D6-4D91723C9AA8}" name="Posterior_mean" dataDxfId="19">
+  <tableColumns count="21">
+    <tableColumn id="1" xr3:uid="{93352111-0C15-4E5A-BC1B-66C643DECE9B}" name="Text from code" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{47A31264-A734-4BA2-81D6-4D91723C9AA8}" name="Posterior_mean" dataDxfId="21">
       <calculatedColumnFormula>VALUE(RIGHT(Transform[[#This Row],[Text from code]],LEN(Transform[[#This Row],[Text from code]])-FIND("=",Transform[[#This Row],[Text from code]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E22EC6E-3272-4283-89E4-E3F045919547}" name="Check" dataDxfId="18">
+    <tableColumn id="5" xr3:uid="{1E22EC6E-3272-4283-89E4-E3F045919547}" name="Check" dataDxfId="20">
       <calculatedColumnFormula array="1">SUMPRODUCT((Table_PDF[Posterior_Mean]=Transform[[#This Row],[Posterior_mean]])*1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{07986B74-D35B-420F-A085-C76C88D7BBAA}" name="Prior_Distrib" dataDxfId="17">
+    <tableColumn id="3" xr3:uid="{07986B74-D35B-420F-A085-C76C88D7BBAA}" name="Prior_Distrib" dataDxfId="19">
       <calculatedColumnFormula>INDEX(Table_PDF[Prior_Distrib],MATCH(Transform[[#This Row],[Posterior_mean]],Table_PDF[Posterior_Mean],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{2DA77780-CF23-4201-8CAB-4FAB42A6FF9A}" name="Positive Posterior_mean" dataDxfId="16">
+    <tableColumn id="26" xr3:uid="{2DA77780-CF23-4201-8CAB-4FAB42A6FF9A}" name="Positive Posterior_mean" dataDxfId="18">
       <calculatedColumnFormula>Transform[[#This Row],[Posterior_mean]]&gt;=0</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{C53CCBB7-1EBC-441A-A027-24270200F4F1}" name="Abs_posterior_mean" dataDxfId="15">
+    <tableColumn id="25" xr3:uid="{C53CCBB7-1EBC-441A-A027-24270200F4F1}" name="Abs_posterior_mean" dataDxfId="17">
       <calculatedColumnFormula>ABS(Transform[[#This Row],[Posterior_mean]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{286F0A77-1D1F-4644-AD1D-A8E13C018CF4}" name="Posterior_st.dev" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{286F0A77-1D1F-4644-AD1D-A8E13C018CF4}" name="Posterior_st.dev" dataDxfId="16">
       <calculatedColumnFormula>INDEX(Table_PDF[Posterior_st.dev],MATCH(Transform[[#This Row],[Posterior_mean]],Table_PDF[Posterior_Mean],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6466622C-05B3-4C91-A4DD-167134800F57}" name="Posterior_variance" dataDxfId="13">
+    <tableColumn id="10" xr3:uid="{6466622C-05B3-4C91-A4DD-167134800F57}" name="Posterior_variance" dataDxfId="15">
       <calculatedColumnFormula>Transform[[#This Row],[Posterior_st.dev]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FE4574B4-2AC8-4C0E-B45C-01DFFDADE0AC}" name="Posterior_Alpha" dataDxfId="12">
+    <tableColumn id="11" xr3:uid="{FE4574B4-2AC8-4C0E-B45C-01DFFDADE0AC}" name="Posterior_Alpha" dataDxfId="14">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="beta",Transform[[#This Row],[Posterior_mean]]*((Transform[[#This Row],[Posterior_mean]]-Transform[[#This Row],[Posterior_mean]]^2)/Transform[[#This Row],[Posterior_variance]]-1),"N.A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8DF26A7D-EFA2-49AA-A7CB-31EE24FDE5A4}" name="Posterior_Beta" dataDxfId="11">
+    <tableColumn id="14" xr3:uid="{8DF26A7D-EFA2-49AA-A7CB-31EE24FDE5A4}" name="Posterior_Beta" dataDxfId="13">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="beta",(1-Transform[[#This Row],[Posterior_mean]])*((Transform[[#This Row],[Posterior_mean]]-Transform[[#This Row],[Posterior_mean]]^2)/Transform[[#This Row],[Posterior_variance]]-1),"N.A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0D4A1C81-2D54-46C1-9684-F12EF4345606}" name="Posterior_k" dataDxfId="10">
+    <tableColumn id="13" xr3:uid="{0D4A1C81-2D54-46C1-9684-F12EF4345606}" name="Posterior_k" dataDxfId="12">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="gamma",Transform[[#This Row],[Posterior_mean]]^2/Transform[[#This Row],[Posterior_variance]],"N.A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4DD7941D-1708-45DE-8576-3FBC23DEC962}" name="Posterior_Theta" dataDxfId="9">
+    <tableColumn id="12" xr3:uid="{4DD7941D-1708-45DE-8576-3FBC23DEC962}" name="Posterior_Theta" dataDxfId="11">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="gamma",Transform[[#This Row],[Posterior_variance]]/Transform[[#This Row],[Posterior_mean]],"N.A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{09853284-131B-4816-AADD-41B8A13F64E9}" name="Code Variable" dataDxfId="8">
-      <calculatedColumnFormula>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{09853284-131B-4816-AADD-41B8A13F64E9}" name="Code Variable" dataDxfId="1">
+      <calculatedColumnFormula>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A50B3E1E-901A-4605-A024-9420F4962591}" name="Random function" dataDxfId="7">
+    <tableColumn id="7" xr3:uid="{A50B3E1E-901A-4605-A024-9420F4962591}" name="Random function" dataDxfId="10">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{C7579C24-61EE-4852-9B41-98F6A0B93BEE}" name="Input 1 (Alpha or k)" dataDxfId="6">
+    <tableColumn id="15" xr3:uid="{C7579C24-61EE-4852-9B41-98F6A0B93BEE}" name="Input 1 (Alpha or k)" dataDxfId="9">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="beta",Transform[[#This Row],[Posterior_Alpha]],Transform[[#This Row],[Posterior_k]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{D64DA709-41F4-4C05-8539-CE2CF5232418}" name="Input 2 (Beta or Theta)" dataDxfId="5">
+    <tableColumn id="16" xr3:uid="{D64DA709-41F4-4C05-8539-CE2CF5232418}" name="Input 2 (Beta or Theta)" dataDxfId="8">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="beta",Transform[[#This Row],[Posterior_Beta]],Transform[[#This Row],[Posterior_Theta]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{B83BC3C7-19D2-4DAA-9941-D53EDBF4AC09}" name="Bug" dataDxfId="4">
+    <tableColumn id="19" xr3:uid="{B83BC3C7-19D2-4DAA-9941-D53EDBF4AC09}" name="Bug" dataDxfId="7">
       <calculatedColumnFormula>ISERROR(Transform[[#This Row],[Input 1 (Alpha or k)]])*1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{DD628483-13BE-4C50-9B8B-1464F12E02D9}" name="Check negative" dataDxfId="3">
+    <tableColumn id="20" xr3:uid="{DD628483-13BE-4C50-9B8B-1464F12E02D9}" name="Check negative" dataDxfId="6">
       <calculatedColumnFormula>(Transform[[#This Row],[Input 1 (Alpha or k)]]&lt;0)+(Transform[[#This Row],[Input 2 (Beta or Theta)]]&lt;0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{874CC843-549D-4034-AEE1-9671DA8DDABF}" name="Text for code" dataDxfId="2">
-      <calculatedColumnFormula>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</calculatedColumnFormula>
+    <tableColumn id="21" xr3:uid="{874CC843-549D-4034-AEE1-9671DA8DDABF}" name="Draw vector (from prior law)" dataDxfId="3">
+      <calculatedColumnFormula>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{6372D05D-25B5-40ED-9BF9-C0B0E08D8FB6}" name="Draw vector (from normal law)" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{38D20646-E56C-4383-9931-E6C2303BD442}" name="Set param value" dataDxfId="2">
+      <calculatedColumnFormula>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -898,8 +916,8 @@
     <sortCondition ref="F5:F68"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C00F82CA-3FE7-4295-AB17-0A5A4462112F}" uniqueName="1" name="Parameter" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{0BB5B8CF-D982-4F6C-AE49-DC4584E943C1}" uniqueName="2" name="Prior_Distrib" queryTableFieldId="2" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C00F82CA-3FE7-4295-AB17-0A5A4462112F}" uniqueName="1" name="Parameter" queryTableFieldId="1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{0BB5B8CF-D982-4F6C-AE49-DC4584E943C1}" uniqueName="2" name="Prior_Distrib" queryTableFieldId="2" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{363CA048-3767-4F80-B90B-E49B9BD60F75}" uniqueName="3" name="Prior_Mean" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{4F49F219-DA42-47DE-B43C-9BB0C14BFF94}" uniqueName="4" name="Prior_st.dev" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{9BB42276-9344-47A6-97BA-1D483CA77B54}" uniqueName="5" name="Posterior_Mean" queryTableFieldId="5"/>
@@ -1206,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFA16B9-95AD-47CF-84E9-3F1C4429F643}">
-  <dimension ref="B6:T57"/>
+  <dimension ref="B6:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10:U57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1228,27 +1246,29 @@
     <col min="14" max="16" width="22.28515625" customWidth="1"/>
     <col min="17" max="17" width="20.5703125" customWidth="1"/>
     <col min="18" max="18" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="22" width="20.28515625" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="68.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="20.28515625" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>81</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D9" t="s">
         <v>122</v>
@@ -1257,28 +1277,28 @@
         <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" t="s">
         <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
         <v>132</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>133</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>134</v>
-      </c>
-      <c r="M9" t="s">
-        <v>135</v>
       </c>
       <c r="N9" t="s">
         <v>124</v>
@@ -1287,22 +1307,28 @@
         <v>125</v>
       </c>
       <c r="P9" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q9" t="s">
         <v>128</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>129</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>130</v>
       </c>
-      <c r="S9" t="s">
-        <v>131</v>
-      </c>
       <c r="T9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="U9" t="s">
+        <v>140</v>
+      </c>
+      <c r="V9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1351,8 +1377,8 @@
         <v>N.A</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">G1E </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>G1E</v>
       </c>
       <c r="O10" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1375,11 +1401,19 @@
         <v>0</v>
       </c>
       <c r="T10" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>G1E   =   -betarnd(0.3871750148721,4.74777213197273);</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>G1E_vec  =   -betarnd(0.3871750148721,4.74777213197273,1,H);</v>
+      </c>
+      <c r="U10" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>G1E_vec  =   normrnd(-0.0754,0.1066,1,H);</v>
+      </c>
+      <c r="V10" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('G1E',G1E_vec(h));</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>9</v>
       </c>
@@ -1428,8 +1462,8 @@
         <v>N.A</v>
       </c>
       <c r="N11" s="6" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GSLAG </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GSLAG</v>
       </c>
       <c r="O11" s="6" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1452,11 +1486,19 @@
         <v>0</v>
       </c>
       <c r="T11" s="6" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GSLAG   =   -betarnd(9.09571408283434,12.4224171753496);</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GSLAG_vec  =   -betarnd(9.09571408283434,12.4224171753496,1,H);</v>
+      </c>
+      <c r="U11" s="6" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GSLAG_vec  =   normrnd(-0.4227,0.1041,1,H);</v>
+      </c>
+      <c r="V11" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GSLAG',GSLAG_vec(h));</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1505,8 +1547,8 @@
         <v>N.A</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GVECM </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GVECM</v>
       </c>
       <c r="O12" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1529,11 +1571,19 @@
         <v>0</v>
       </c>
       <c r="T12" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GVECM   =   -betarnd(10.4425602204091,56.1979006628652);</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GVECM_vec  =   -betarnd(10.4425602204091,56.1979006628652,1,H);</v>
+      </c>
+      <c r="U12" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GVECM_vec  =   normrnd(-0.1567,0.0442,1,H);</v>
+      </c>
+      <c r="V12" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GVECM',GVECM_vec(h));</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1582,8 +1632,8 @@
         <v>N.A</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">IGVECM </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>IGVECM</v>
       </c>
       <c r="O13" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1606,11 +1656,19 @@
         <v>0</v>
       </c>
       <c r="T13" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>IGVECM   =   -betarnd(6.04568315131211,43.4279923913401);</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>IGVECM_vec  =   -betarnd(6.04568315131211,43.4279923913401,1,H);</v>
+      </c>
+      <c r="U13" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>IGVECM_vec  =   normrnd(-0.1222,0.0461,1,H);</v>
+      </c>
+      <c r="V13" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('IGVECM',IGVECM_vec(h));</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1659,8 +1717,8 @@
         <v>N.A</v>
       </c>
       <c r="N14" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">A2E </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>A2E</v>
       </c>
       <c r="O14" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1683,11 +1741,19 @@
         <v>0</v>
       </c>
       <c r="T14" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>A2E   =   betarnd(11.9122825378418,251.052011895752);</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>A2E_vec  =   betarnd(11.9122825378418,251.052011895752,1,H);</v>
+      </c>
+      <c r="U14" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>A2E_vec  =   normrnd(0.0453,0.0128,1,H);</v>
+      </c>
+      <c r="V14" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('A2E',A2E_vec(h));</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1736,8 +1802,8 @@
         <v>5.5553426476196996</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GAMIE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GAMIE</v>
       </c>
       <c r="O15" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1760,11 +1826,19 @@
         <v>0</v>
       </c>
       <c r="T15" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GAMIE   =   gamrnd(13.6871125370781,5.5553426476197);</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMIE_vec  =   gamrnd(13.6871125370781,5.5553426476197,1,H);</v>
+      </c>
+      <c r="U15" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMIE_vec  =   normrnd(76.0366,20.5526,1,H);</v>
+      </c>
+      <c r="V15" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GAMIE',GAMIE_vec(h));</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1813,8 +1887,8 @@
         <v>0.23969530135520681</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GAMI2E </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GAMI2E</v>
       </c>
       <c r="O16" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1837,11 +1911,19 @@
         <v>0</v>
       </c>
       <c r="T16" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GAMI2E   =   gamrnd(4.67927403523814,0.239695301355207);</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMI2E_vec  =   gamrnd(4.67927403523814,0.239695301355207,1,H);</v>
+      </c>
+      <c r="U16" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMI2E_vec  =   normrnd(1.1216,0.5185,1,H);</v>
+      </c>
+      <c r="V16" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GAMI2E',GAMI2E_vec(h));</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1890,8 +1972,8 @@
         <v>2.5837532613046594</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GAMLE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GAMLE</v>
       </c>
       <c r="O17" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1914,11 +1996,19 @@
         <v>0</v>
       </c>
       <c r="T17" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GAMLE   =   gamrnd(22.5285830778624,2.58375326130466);</v>
-      </c>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMLE_vec  =   gamrnd(22.5285830778624,2.58375326130466,1,H);</v>
+      </c>
+      <c r="U17" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMLE_vec  =   normrnd(58.2083,12.2636,1,H);</v>
+      </c>
+      <c r="V17" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GAMLE',GAMLE_vec(h));</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -1967,8 +2057,8 @@
         <v>1.767422225043334</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GAMPE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GAMPE</v>
       </c>
       <c r="O18" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -1991,11 +2081,19 @@
         <v>0</v>
       </c>
       <c r="T18" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GAMPE   =   gamrnd(34.7633401512157,1.76742222504333);</v>
-      </c>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMPE_vec  =   gamrnd(34.7633401512157,1.76742222504333,1,H);</v>
+      </c>
+      <c r="U18" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMPE_vec  =   normrnd(61.4415,10.4208,1,H);</v>
+      </c>
+      <c r="V18" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GAMPE',GAMPE_vec(h));</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2044,8 +2142,8 @@
         <v>0.4925781432487189</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GAMPME </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GAMPME</v>
       </c>
       <c r="O19" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2068,11 +2166,19 @@
         <v>0</v>
       </c>
       <c r="T19" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GAMPME   =   gamrnd(3.40697211803127,0.492578143248719);</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMPME_vec  =   gamrnd(3.40697211803127,0.492578143248719,1,H);</v>
+      </c>
+      <c r="U19" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMPME_vec  =   normrnd(1.6782,0.9092,1,H);</v>
+      </c>
+      <c r="V19" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GAMPME',GAMPME_vec(h));</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -2121,8 +2227,8 @@
         <v>10.852865509349622</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GAMPXE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GAMPXE</v>
       </c>
       <c r="O20" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2145,11 +2251,19 @@
         <v>0</v>
       </c>
       <c r="T20" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GAMPXE   =   gamrnd(2.40760377777554,10.8528655093496);</v>
-      </c>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMPXE_vec  =   gamrnd(2.40760377777554,10.8528655093496,1,H);</v>
+      </c>
+      <c r="U20" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMPXE_vec  =   normrnd(26.1294,16.8398,1,H);</v>
+      </c>
+      <c r="V20" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GAMPXE',GAMPXE_vec(h));</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2198,8 +2312,8 @@
         <v>0.52824615682328346</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">GAMWE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>GAMWE</v>
       </c>
       <c r="O21" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2222,11 +2336,19 @@
         <v>0</v>
       </c>
       <c r="T21" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>GAMWE   =   gamrnd(2.44564013067148,0.528246156823283);</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMWE_vec  =   gamrnd(2.44564013067148,0.528246156823283,1,H);</v>
+      </c>
+      <c r="U21" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>GAMWE_vec  =   normrnd(1.2919,0.8261,1,H);</v>
+      </c>
+      <c r="V21" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('GAMWE',GAMWE_vec(h));</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2275,8 +2397,8 @@
         <v>N.A</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">HABE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>HABE</v>
       </c>
       <c r="O22" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2299,11 +2421,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>HABE   =   betarnd(81.080357597323,62.8322401970025);</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>HABE_vec  =   betarnd(81.080357597323,62.8322401970025,1,H);</v>
+      </c>
+      <c r="U22" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>HABE_vec  =   normrnd(0.5634,0.0412,1,H);</v>
+      </c>
+      <c r="V22" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('HABE',HABE_vec(h));</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2352,8 +2482,8 @@
         <v>N.A</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">HABLE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>HABLE</v>
       </c>
       <c r="O23" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2376,11 +2506,19 @@
         <v>0</v>
       </c>
       <c r="T23" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>HABLE   =   betarnd(19.8492375075171,4.68931794744286);</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>HABLE_vec  =   betarnd(19.8492375075171,4.68931794744286,1,H);</v>
+      </c>
+      <c r="U23" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>HABLE_vec  =   normrnd(0.8089,0.0778,1,H);</v>
+      </c>
+      <c r="V23" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('HABLE',HABLE_vec(h));</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
@@ -2429,8 +2567,8 @@
         <v>N.A</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">IG1E </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>IG1E</v>
       </c>
       <c r="O24" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2453,11 +2591,19 @@
         <v>0</v>
       </c>
       <c r="T24" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>IG1E   =   betarnd(1.77116614802584,10.0602710465355);</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>IG1E_vec  =   betarnd(1.77116614802584,10.0602710465355,1,H);</v>
+      </c>
+      <c r="U24" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>IG1E_vec  =   normrnd(0.1497,0.0996,1,H);</v>
+      </c>
+      <c r="V24" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('IG1E',IG1E_vec(h));</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2506,8 +2652,8 @@
         <v>N.A</v>
       </c>
       <c r="N25" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">IGSLAG </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>IGSLAG</v>
       </c>
       <c r="O25" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2530,11 +2676,19 @@
         <v>0</v>
       </c>
       <c r="T25" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>IGSLAG   =   betarnd(13.365,16.5009217877095);</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>IGSLAG_vec  =   betarnd(13.365,16.5009217877095,1,H);</v>
+      </c>
+      <c r="U25" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>IGSLAG_vec  =   normrnd(0.4475,0.0895,1,H);</v>
+      </c>
+      <c r="V25" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('IGSLAG',IGSLAG_vec(h));</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2737,8 @@
         <v>N.A</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">ILAGE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>ILAGE</v>
       </c>
       <c r="O26" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2607,11 +2761,19 @@
         <v>0</v>
       </c>
       <c r="T26" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>ILAGE   =   betarnd(333.88212714256,36.7274045952133);</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>ILAGE_vec  =   betarnd(333.88212714256,36.7274045952133,1,H);</v>
+      </c>
+      <c r="U26" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>ILAGE_vec  =   normrnd(0.9009,0.0155,1,H);</v>
+      </c>
+      <c r="V26" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('ILAGE',ILAGE_vec(h));</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2660,8 +2822,8 @@
         <v>0.1024544527673741</v>
       </c>
       <c r="N27" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">KAPPAE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>KAPPAE</v>
       </c>
       <c r="O27" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2684,11 +2846,19 @@
         <v>0</v>
       </c>
       <c r="T27" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>KAPPAE   =   gamrnd(18.7634597430808,0.102454452767374);</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>KAPPAE_vec  =   gamrnd(18.7634597430808,0.102454452767374,1,H);</v>
+      </c>
+      <c r="U27" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>KAPPAE_vec  =   normrnd(1.9224,0.4438,1,H);</v>
+      </c>
+      <c r="V27" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('KAPPAE',KAPPAE_vec(h));</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -2737,8 +2907,8 @@
         <v>N.A</v>
       </c>
       <c r="N28" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOCE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOCE</v>
       </c>
       <c r="O28" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2761,11 +2931,19 @@
         <v>0</v>
       </c>
       <c r="T28" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOCE   =   betarnd(81.3292104751508,7.61349564378053);</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOCE_vec  =   betarnd(81.3292104751508,7.61349564378053,1,H);</v>
+      </c>
+      <c r="U28" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOCE_vec  =   normrnd(0.9144,0.0295,1,H);</v>
+      </c>
+      <c r="V28" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOCE',RHOCE_vec(h));</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
@@ -2814,8 +2992,8 @@
         <v>N.A</v>
       </c>
       <c r="N29" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOETA </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOETA</v>
       </c>
       <c r="O29" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2838,11 +3016,19 @@
         <v>0</v>
       </c>
       <c r="T29" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOETA   =   betarnd(1.68669468122152,13.7169097134955);</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOETA_vec  =   betarnd(1.68669468122152,13.7169097134955,1,H);</v>
+      </c>
+      <c r="U29" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOETA_vec  =   normrnd(0.1095,0.0771,1,H);</v>
+      </c>
+      <c r="V29" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOETA',RHOETA_vec(h));</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2891,8 +3077,8 @@
         <v>N.A</v>
       </c>
       <c r="N30" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOETAM </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOETAM</v>
       </c>
       <c r="O30" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2915,11 +3101,19 @@
         <v>0</v>
       </c>
       <c r="T30" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOETAM   =   betarnd(149.482871932629,6.92904805547293);</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOETAM_vec  =   betarnd(149.482871932629,6.92904805547293,1,H);</v>
+      </c>
+      <c r="U30" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOETAM_vec  =   normrnd(0.9557,0.0164,1,H);</v>
+      </c>
+      <c r="V30" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOETAM',RHOETAM_vec(h));</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2968,8 +3162,8 @@
         <v>N.A</v>
       </c>
       <c r="N31" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOETAX </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOETAX</v>
       </c>
       <c r="O31" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -2992,11 +3186,19 @@
         <v>0</v>
       </c>
       <c r="T31" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOETAX   =   betarnd(27.0550083713561,6.30916522755388);</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOETAX_vec  =   betarnd(27.0550083713561,6.30916522755388,1,H);</v>
+      </c>
+      <c r="U31" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOETAX_vec  =   normrnd(0.8109,0.0668,1,H);</v>
+      </c>
+      <c r="V31" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOETAX',RHOETAX_vec(h));</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -3045,8 +3247,8 @@
         <v>N.A</v>
       </c>
       <c r="N32" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOGE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOGE</v>
       </c>
       <c r="O32" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3069,11 +3271,19 @@
         <v>0</v>
       </c>
       <c r="T32" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOGE   =   betarnd(5.9456293913,13.9860816087);</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOGE_vec  =   betarnd(5.9456293913,13.9860816087,1,H);</v>
+      </c>
+      <c r="U32" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOGE_vec  =   normrnd(0.2983,0.1,1,H);</v>
+      </c>
+      <c r="V32" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOGE',RHOGE_vec(h));</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -3122,8 +3332,8 @@
         <v>N.A</v>
       </c>
       <c r="N33" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOIG </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOIG</v>
       </c>
       <c r="O33" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3146,11 +3356,19 @@
         <v>0</v>
       </c>
       <c r="T33" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOIG   =   betarnd(15.9853198285919,2.75479720375499);</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOIG_vec  =   betarnd(15.9853198285919,2.75479720375499,1,H);</v>
+      </c>
+      <c r="U33" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOIG_vec  =   normrnd(0.853,0.0797,1,H);</v>
+      </c>
+      <c r="V33" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOIG',RHOIG_vec(h));</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -3199,8 +3417,8 @@
         <v>N.A</v>
       </c>
       <c r="N34" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOLE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOLE</v>
       </c>
       <c r="O34" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3223,11 +3441,19 @@
         <v>0</v>
       </c>
       <c r="T34" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOLE   =   betarnd(93.0308739765042,2.38540702503857);</v>
-      </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOLE_vec  =   betarnd(93.0308739765042,2.38540702503857,1,H);</v>
+      </c>
+      <c r="U34" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOLE_vec  =   normrnd(0.975,0.0159,1,H);</v>
+      </c>
+      <c r="V34" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOLE',RHOLE_vec(h));</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3276,8 +3502,8 @@
         <v>N.A</v>
       </c>
       <c r="N35" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOL0 </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOL0</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3300,11 +3526,19 @@
         <v>0</v>
       </c>
       <c r="T35" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOL0   =   betarnd(163.236723064735,11.6472742191037);</v>
-      </c>
-    </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOL0_vec  =   betarnd(163.236723064735,11.6472742191037,1,H);</v>
+      </c>
+      <c r="U35" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOL0_vec  =   normrnd(0.9334,0.0188,1,H);</v>
+      </c>
+      <c r="V35" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOL0',RHOL0_vec(h));</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
@@ -3353,8 +3587,8 @@
         <v>N.A</v>
       </c>
       <c r="N36" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOPCPM </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOPCPM</v>
       </c>
       <c r="O36" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3377,11 +3611,19 @@
         <v>0</v>
       </c>
       <c r="T36" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOPCPM   =   betarnd(6.79701820447584,3.42098871746619);</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOPCPM_vec  =   betarnd(6.79701820447584,3.42098871746619,1,H);</v>
+      </c>
+      <c r="U36" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOPCPM_vec  =   normrnd(0.6652,0.1409,1,H);</v>
+      </c>
+      <c r="V36" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOPCPM',RHOPCPM_vec(h));</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
@@ -3430,8 +3672,8 @@
         <v>N.A</v>
       </c>
       <c r="N37" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOPWPX </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOPWPX</v>
       </c>
       <c r="O37" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3454,11 +3696,19 @@
         <v>0</v>
       </c>
       <c r="T37" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOPWPX   =   betarnd(7.55065652002992,27.4222778015538);</v>
-      </c>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOPWPX_vec  =   betarnd(7.55065652002992,27.4222778015538,1,H);</v>
+      </c>
+      <c r="U37" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOPWPX_vec  =   normrnd(0.2159,0.0686,1,H);</v>
+      </c>
+      <c r="V37" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOPWPX',RHOPWPX_vec(h));</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
@@ -3507,8 +3757,8 @@
         <v>N.A</v>
       </c>
       <c r="N38" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHORPE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHORPE</v>
       </c>
       <c r="O38" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3531,11 +3781,19 @@
         <v>0</v>
       </c>
       <c r="T38" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHORPE   =   betarnd(143.276939711565,2.30011750400604);</v>
-      </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHORPE_vec  =   betarnd(143.276939711565,2.30011750400604,1,H);</v>
+      </c>
+      <c r="U38" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHORPE_vec  =   normrnd(0.9842,0.0103,1,H);</v>
+      </c>
+      <c r="V38" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHORPE',RHORPE_vec(h));</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
@@ -3584,8 +3842,8 @@
         <v>N.A</v>
       </c>
       <c r="N39" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHORPK </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHORPK</v>
       </c>
       <c r="O39" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3608,11 +3866,19 @@
         <v>0</v>
       </c>
       <c r="T39" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHORPK   =   betarnd(130.420074851259,12.1466882130819);</v>
-      </c>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHORPK_vec  =   betarnd(130.420074851259,12.1466882130819,1,H);</v>
+      </c>
+      <c r="U39" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHORPK_vec  =   normrnd(0.9148,0.0233,1,H);</v>
+      </c>
+      <c r="V39" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHORPK',RHORPK_vec(h));</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
@@ -3661,8 +3927,8 @@
         <v>N.A</v>
       </c>
       <c r="N40" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOUCAP0 </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOUCAP0</v>
       </c>
       <c r="O40" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3685,11 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T40" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOUCAP0   =   betarnd(124.150243398439,6.30078465498012);</v>
-      </c>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOUCAP0_vec  =   betarnd(124.150243398439,6.30078465498012,1,H);</v>
+      </c>
+      <c r="U40" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOUCAP0_vec  =   normrnd(0.9517,0.0187,1,H);</v>
+      </c>
+      <c r="V40" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOUCAP0',RHOUCAP0_vec(h));</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
@@ -3738,8 +4012,8 @@
         <v>N.A</v>
       </c>
       <c r="N41" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RPREME </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RPREME</v>
       </c>
       <c r="O41" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3762,11 +4036,19 @@
         <v>0</v>
       </c>
       <c r="T41" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RPREME   =   betarnd(7.13850986121256,349.786983199416);</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RPREME_vec  =   betarnd(7.13850986121256,349.786983199416,1,H);</v>
+      </c>
+      <c r="U41" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RPREME_vec  =   normrnd(0.02,0.0074,1,H);</v>
+      </c>
+      <c r="V41" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RPREME',RPREME_vec(h));</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
@@ -3815,8 +4097,8 @@
         <v>N.A</v>
       </c>
       <c r="N42" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RPREMK </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RPREMK</v>
       </c>
       <c r="O42" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3839,11 +4121,19 @@
         <v>0</v>
       </c>
       <c r="T42" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RPREMK   =   betarnd(86.5944164201183,3447.87155991124);</v>
-      </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RPREMK_vec  =   betarnd(86.5944164201183,3447.87155991124,1,H);</v>
+      </c>
+      <c r="U42" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RPREMK_vec  =   normrnd(0.0245,0.0026,1,H);</v>
+      </c>
+      <c r="V42" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RPREMK',RPREMK_vec(h));</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
@@ -3892,8 +4182,8 @@
         <v>N.A</v>
       </c>
       <c r="N43" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SE</v>
       </c>
       <c r="O43" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3916,11 +4206,19 @@
         <v>0</v>
       </c>
       <c r="T43" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SE   =   betarnd(270.226910453978,44.4294827155352);</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SE_vec  =   betarnd(270.226910453978,44.4294827155352,1,H);</v>
+      </c>
+      <c r="U43" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SE_vec  =   normrnd(0.8588,0.0196,1,H);</v>
+      </c>
+      <c r="V43" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SE',SE_vec(h));</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>34</v>
       </c>
@@ -3969,8 +4267,8 @@
         <v>N.A</v>
       </c>
       <c r="N44" s="6" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SFPE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SFPE</v>
       </c>
       <c r="O44" s="6" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -3993,11 +4291,19 @@
         <v>0</v>
       </c>
       <c r="T44" s="6" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SFPE   =   betarnd(29.5031576539166,4.35403497164756);</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SFPE_vec  =   betarnd(29.5031576539166,4.35403497164756,1,H);</v>
+      </c>
+      <c r="U44" s="6" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SFPE_vec  =   normrnd(0.8714,0.0567,1,H);</v>
+      </c>
+      <c r="V44" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SFPE',SFPE_vec(h));</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>35</v>
       </c>
@@ -4046,8 +4352,8 @@
         <v>N.A</v>
       </c>
       <c r="N45" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SFPME </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SFPME</v>
       </c>
       <c r="O45" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4070,11 +4376,19 @@
         <v>0</v>
       </c>
       <c r="T45" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SFPME   =   betarnd(8.76171924619187,3.14117335833451);</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SFPME_vec  =   betarnd(8.76171924619187,3.14117335833451,1,H);</v>
+      </c>
+      <c r="U45" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SFPME_vec  =   normrnd(0.7361,0.1227,1,H);</v>
+      </c>
+      <c r="V45" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SFPME',SFPME_vec(h));</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
         <v>36</v>
       </c>
@@ -4123,8 +4437,8 @@
         <v>N.A</v>
       </c>
       <c r="N46" s="6" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SFPXE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SFPXE</v>
       </c>
       <c r="O46" s="6" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4147,11 +4461,19 @@
         <v>0</v>
       </c>
       <c r="T46" s="6" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SFPXE   =   betarnd(29.9690857153074,2.67697715539782);</v>
-      </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SFPXE_vec  =   betarnd(29.9690857153074,2.67697715539782,1,H);</v>
+      </c>
+      <c r="U46" s="6" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SFPXE_vec  =   normrnd(0.918,0.0473,1,H);</v>
+      </c>
+      <c r="V46" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SFPXE',SFPXE_vec(h));</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>37</v>
       </c>
@@ -4200,8 +4522,8 @@
         <v>N.A</v>
       </c>
       <c r="N47" s="6" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SFWE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SFWE</v>
       </c>
       <c r="O47" s="6" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4224,11 +4546,19 @@
         <v>0</v>
       </c>
       <c r="T47" s="6" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SFWE   =   betarnd(4.75838075897478,1.39257678882095);</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SFWE_vec  =   betarnd(4.75838075897478,1.39257678882095,1,H);</v>
+      </c>
+      <c r="U47" s="6" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SFWE_vec  =   normrnd(0.7736,0.1565,1,H);</v>
+      </c>
+      <c r="V47" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SFWE',SFWE_vec(h));</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
@@ -4277,8 +4607,8 @@
         <v>0.16136150578585029</v>
       </c>
       <c r="N48" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SIGC </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SIGC</v>
       </c>
       <c r="O48" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4301,11 +4631,19 @@
         <v>0</v>
       </c>
       <c r="T48" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SIGC   =   gamrnd(25.3852365844692,0.16136150578585);</v>
-      </c>
-    </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SIGC_vec  =   gamrnd(25.3852365844692,0.16136150578585,1,H);</v>
+      </c>
+      <c r="U48" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SIGC_vec  =   normrnd(4.0962,0.813,1,H);</v>
+      </c>
+      <c r="V48" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SIGC',SIGC_vec(h));</v>
+      </c>
+    </row>
+    <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
         <v>39</v>
       </c>
@@ -4354,8 +4692,8 @@
         <v>4.038173357520309E-2</v>
       </c>
       <c r="N49" s="6" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SIGEXE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SIGEXE</v>
       </c>
       <c r="O49" s="6" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4378,11 +4716,19 @@
         <v>0</v>
       </c>
       <c r="T49" s="6" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SIGEXE   =   gamrnd(62.795719140625,0.0403817335752031);</v>
-      </c>
-    </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SIGEXE_vec  =   gamrnd(62.795719140625,0.0403817335752031,1,H);</v>
+      </c>
+      <c r="U49" s="6" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SIGEXE_vec  =   normrnd(2.5358,0.32,1,H);</v>
+      </c>
+      <c r="V49" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SIGEXE',SIGEXE_vec(h));</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>40</v>
       </c>
@@ -4431,8 +4777,8 @@
         <v>3.891586489252815E-2</v>
       </c>
       <c r="N50" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SIGIME </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SIGIME</v>
       </c>
       <c r="O50" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4455,11 +4801,19 @@
         <v>0</v>
       </c>
       <c r="T50" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SIGIME   =   gamrnd(30.126530741068,0.0389158648925282);</v>
-      </c>
-    </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SIGIME_vec  =   gamrnd(30.126530741068,0.0389158648925282,1,H);</v>
+      </c>
+      <c r="U50" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SIGIME_vec  =   normrnd(1.1724,0.2136,1,H);</v>
+      </c>
+      <c r="V50" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SIGIME',SIGIME_vec(h));</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
@@ -4508,8 +4862,8 @@
         <v>N.A</v>
       </c>
       <c r="N51" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">SLC </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>SLC</v>
       </c>
       <c r="O51" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4532,11 +4886,19 @@
         <v>0</v>
       </c>
       <c r="T51" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>SLC   =   betarnd(13.6959979217823,25.3573180798781);</v>
-      </c>
-    </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SLC_vec  =   betarnd(13.6959979217823,25.3573180798781,1,H);</v>
+      </c>
+      <c r="U51" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>SLC_vec  =   normrnd(0.3507,0.0754,1,H);</v>
+      </c>
+      <c r="V51" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('SLC',SLC_vec(h));</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
         <v>42</v>
       </c>
@@ -4585,8 +4947,8 @@
         <v>N.A</v>
       </c>
       <c r="N52" s="6" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">TINFE </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>TINFE</v>
       </c>
       <c r="O52" s="6" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4609,11 +4971,19 @@
         <v>1</v>
       </c>
       <c r="T52" s="6" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
         <v>TINFE = 1.9590;</v>
       </c>
-    </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="6" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>TINFE = 1.9590;</v>
+      </c>
+      <c r="V52" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('TINFE',TINFE_vec(h));</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>43</v>
       </c>
@@ -4662,8 +5032,8 @@
         <v>#N/A</v>
       </c>
       <c r="N53" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">TR1E </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>TR1E</v>
       </c>
       <c r="O53" s="2" t="e">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4686,11 +5056,19 @@
         <v>#N/A</v>
       </c>
       <c r="T53" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
         <v>TR1E = 0.9183 ;</v>
       </c>
-    </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>TR1E = 0.9183 ;</v>
+      </c>
+      <c r="V53" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('TR1E',TR1E_vec(h));</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
@@ -4739,8 +5117,8 @@
         <v>N.A</v>
       </c>
       <c r="N54" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">RHOTR </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>RHOTR</v>
       </c>
       <c r="O54" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4763,11 +5141,19 @@
         <v>0</v>
       </c>
       <c r="T54" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>RHOTR   =   betarnd(54.6695232771421,8.63469543191545);</v>
-      </c>
-    </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOTR_vec  =   betarnd(54.6695232771421,8.63469543191545,1,H);</v>
+      </c>
+      <c r="U54" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>RHOTR_vec  =   normrnd(0.8636,0.0428,1,H);</v>
+      </c>
+      <c r="V54" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('RHOTR',RHOTR_vec(h));</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
@@ -4816,8 +5202,8 @@
         <v>N.A</v>
       </c>
       <c r="N55" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">TYE1 </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>TYE1</v>
       </c>
       <c r="O55" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4840,11 +5226,19 @@
         <v>0</v>
       </c>
       <c r="T55" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>TYE1   =   betarnd(7.60691935607018,10.1912073544356);</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>TYE1_vec  =   betarnd(7.60691935607018,10.1912073544356,1,H);</v>
+      </c>
+      <c r="U55" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>TYE1_vec  =   normrnd(0.4274,0.1141,1,H);</v>
+      </c>
+      <c r="V55" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('TYE1',TYE1_vec(h));</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
@@ -4893,8 +5287,8 @@
         <v>N.A</v>
       </c>
       <c r="N56" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">TYE2 </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>TYE2</v>
       </c>
       <c r="O56" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4917,11 +5311,19 @@
         <v>0</v>
       </c>
       <c r="T56" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>TYE2   =   betarnd(7.28637478137341,85.7707744060264);</v>
-      </c>
-    </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>TYE2_vec  =   betarnd(7.28637478137341,85.7707744060264,1,H);</v>
+      </c>
+      <c r="U56" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>TYE2_vec  =   normrnd(0.0783,0.0277,1,H);</v>
+      </c>
+      <c r="V56" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('TYE2',TYE2_vec(h));</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
@@ -4970,8 +5372,8 @@
         <v>N.A</v>
       </c>
       <c r="N57" s="2" t="str">
-        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]]))</f>
-        <v xml:space="preserve">WRLAG </v>
+        <f>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</f>
+        <v>WRLAG</v>
       </c>
       <c r="O57" s="2" t="str">
         <f>IF(Transform[[#This Row],[Prior_Distrib]]="beta","betarnd","gamrnd")</f>
@@ -4994,8 +5396,16 @@
         <v>0</v>
       </c>
       <c r="T57" s="2" t="str">
-        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;");",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
-        <v>WRLAG   =   betarnd(2.72512582214576,7.54673931975307);</v>
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>WRLAG_vec  =   betarnd(2.72512582214576,7.54673931975307,1,H);</v>
+      </c>
+      <c r="U57" s="2" t="str">
+        <f>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</f>
+        <v>WRLAG_vec  =   normrnd(0.2653,0.1315,1,H);</v>
+      </c>
+      <c r="V57" s="2" t="str">
+        <f>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</f>
+        <v>set_param_value('WRLAG',WRLAG_vec(h));</v>
       </c>
     </row>
   </sheetData>

--- a/EA_QUEST3/Randomize parameters.xlsx
+++ b/EA_QUEST3/Randomize parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33689\Documents\GitHub\Exam-Applied-Macroeconomics\EA_QUEST3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C2B029-5291-49E5-AD48-6C3836877B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E102891-2853-43B3-A742-162C7FBE2321}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{83C6AE5A-7379-4CA1-8CAA-9D1ACFE04297}"/>
+    <workbookView xWindow="3150" yWindow="3150" windowWidth="10065" windowHeight="8325" xr2:uid="{83C6AE5A-7379-4CA1-8CAA-9D1ACFE04297}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters distributions" sheetId="1" r:id="rId1"/>
@@ -624,7 +624,15 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE4D6"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -838,46 +846,50 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3BC17A61-E19F-47A7-AB81-DB16C44409FF}" name="Transform" displayName="Transform" ref="B9:V57" totalsRowShown="0">
-  <autoFilter ref="B9:V57" xr:uid="{3BC17A61-E19F-47A7-AB81-DB16C44409FF}"/>
+  <autoFilter ref="B9:V57" xr:uid="{3BC17A61-E19F-47A7-AB81-DB16C44409FF}">
+    <filterColumn colId="1">
+      <colorFilter dxfId="0"/>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B10:T57">
     <sortCondition ref="F9:F57"/>
   </sortState>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{93352111-0C15-4E5A-BC1B-66C643DECE9B}" name="Text from code" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{47A31264-A734-4BA2-81D6-4D91723C9AA8}" name="Posterior_mean" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{93352111-0C15-4E5A-BC1B-66C643DECE9B}" name="Text from code" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{47A31264-A734-4BA2-81D6-4D91723C9AA8}" name="Posterior_mean" dataDxfId="22">
       <calculatedColumnFormula>VALUE(RIGHT(Transform[[#This Row],[Text from code]],LEN(Transform[[#This Row],[Text from code]])-FIND("=",Transform[[#This Row],[Text from code]])))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1E22EC6E-3272-4283-89E4-E3F045919547}" name="Check" dataDxfId="20">
+    <tableColumn id="5" xr3:uid="{1E22EC6E-3272-4283-89E4-E3F045919547}" name="Check" dataDxfId="21">
       <calculatedColumnFormula array="1">SUMPRODUCT((Table_PDF[Posterior_Mean]=Transform[[#This Row],[Posterior_mean]])*1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{07986B74-D35B-420F-A085-C76C88D7BBAA}" name="Prior_Distrib" dataDxfId="19">
+    <tableColumn id="3" xr3:uid="{07986B74-D35B-420F-A085-C76C88D7BBAA}" name="Prior_Distrib" dataDxfId="20">
       <calculatedColumnFormula>INDEX(Table_PDF[Prior_Distrib],MATCH(Transform[[#This Row],[Posterior_mean]],Table_PDF[Posterior_Mean],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{2DA77780-CF23-4201-8CAB-4FAB42A6FF9A}" name="Positive Posterior_mean" dataDxfId="18">
+    <tableColumn id="26" xr3:uid="{2DA77780-CF23-4201-8CAB-4FAB42A6FF9A}" name="Positive Posterior_mean" dataDxfId="19">
       <calculatedColumnFormula>Transform[[#This Row],[Posterior_mean]]&gt;=0</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{C53CCBB7-1EBC-441A-A027-24270200F4F1}" name="Abs_posterior_mean" dataDxfId="17">
+    <tableColumn id="25" xr3:uid="{C53CCBB7-1EBC-441A-A027-24270200F4F1}" name="Abs_posterior_mean" dataDxfId="18">
       <calculatedColumnFormula>ABS(Transform[[#This Row],[Posterior_mean]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{286F0A77-1D1F-4644-AD1D-A8E13C018CF4}" name="Posterior_st.dev" dataDxfId="16">
+    <tableColumn id="4" xr3:uid="{286F0A77-1D1F-4644-AD1D-A8E13C018CF4}" name="Posterior_st.dev" dataDxfId="17">
       <calculatedColumnFormula>INDEX(Table_PDF[Posterior_st.dev],MATCH(Transform[[#This Row],[Posterior_mean]],Table_PDF[Posterior_Mean],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{6466622C-05B3-4C91-A4DD-167134800F57}" name="Posterior_variance" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{6466622C-05B3-4C91-A4DD-167134800F57}" name="Posterior_variance" dataDxfId="16">
       <calculatedColumnFormula>Transform[[#This Row],[Posterior_st.dev]]^2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FE4574B4-2AC8-4C0E-B45C-01DFFDADE0AC}" name="Posterior_Alpha" dataDxfId="14">
+    <tableColumn id="11" xr3:uid="{FE4574B4-2AC8-4C0E-B45C-01DFFDADE0AC}" name="Posterior_Alpha" dataDxfId="15">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="beta",Transform[[#This Row],[Posterior_mean]]*((Transform[[#This Row],[Posterior_mean]]-Transform[[#This Row],[Posterior_mean]]^2)/Transform[[#This Row],[Posterior_variance]]-1),"N.A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{8DF26A7D-EFA2-49AA-A7CB-31EE24FDE5A4}" name="Posterior_Beta" dataDxfId="13">
+    <tableColumn id="14" xr3:uid="{8DF26A7D-EFA2-49AA-A7CB-31EE24FDE5A4}" name="Posterior_Beta" dataDxfId="14">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="beta",(1-Transform[[#This Row],[Posterior_mean]])*((Transform[[#This Row],[Posterior_mean]]-Transform[[#This Row],[Posterior_mean]]^2)/Transform[[#This Row],[Posterior_variance]]-1),"N.A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{0D4A1C81-2D54-46C1-9684-F12EF4345606}" name="Posterior_k" dataDxfId="12">
+    <tableColumn id="13" xr3:uid="{0D4A1C81-2D54-46C1-9684-F12EF4345606}" name="Posterior_k" dataDxfId="13">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="gamma",Transform[[#This Row],[Posterior_mean]]^2/Transform[[#This Row],[Posterior_variance]],"N.A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4DD7941D-1708-45DE-8576-3FBC23DEC962}" name="Posterior_Theta" dataDxfId="11">
+    <tableColumn id="12" xr3:uid="{4DD7941D-1708-45DE-8576-3FBC23DEC962}" name="Posterior_Theta" dataDxfId="12">
       <calculatedColumnFormula>IF(Transform[[#This Row],[Prior_Distrib]]="gamma",Transform[[#This Row],[Posterior_variance]]/Transform[[#This Row],[Posterior_mean]],"N.A")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{09853284-131B-4816-AADD-41B8A13F64E9}" name="Code Variable" dataDxfId="1">
+    <tableColumn id="6" xr3:uid="{09853284-131B-4816-AADD-41B8A13F64E9}" name="Code Variable" dataDxfId="11">
       <calculatedColumnFormula>LEFT(Transform[[#This Row],[Text from code]],FIND(" ",Transform[[#This Row],[Text from code]])-1)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{A50B3E1E-901A-4605-A024-9420F4962591}" name="Random function" dataDxfId="10">
@@ -895,13 +907,13 @@
     <tableColumn id="20" xr3:uid="{DD628483-13BE-4C50-9B8B-1464F12E02D9}" name="Check negative" dataDxfId="6">
       <calculatedColumnFormula>(Transform[[#This Row],[Input 1 (Alpha or k)]]&lt;0)+(Transform[[#This Row],[Input 2 (Beta or Theta)]]&lt;0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{874CC843-549D-4034-AEE1-9671DA8DDABF}" name="Draw vector (from prior law)" dataDxfId="3">
+    <tableColumn id="21" xr3:uid="{874CC843-549D-4034-AEE1-9671DA8DDABF}" name="Draw vector (from prior law)" dataDxfId="5">
       <calculatedColumnFormula>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   "&amp;IF(Transform[[#This Row],[Positive Posterior_mean]],"","-")&amp;Transform[[#This Row],[Random function]]&amp;"("&amp;Transform[[#This Row],[Input 1 (Alpha or k)]]&amp;","&amp;Transform[[#This Row],[Input 2 (Beta or Theta)]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{6372D05D-25B5-40ED-9BF9-C0B0E08D8FB6}" name="Draw vector (from normal law)" dataDxfId="0">
+    <tableColumn id="9" xr3:uid="{6372D05D-25B5-40ED-9BF9-C0B0E08D8FB6}" name="Draw vector (from normal law)" dataDxfId="4">
       <calculatedColumnFormula>IFERROR(IF(Transform[[#This Row],[Check negative]]=0,Transform[[#This Row],[Code Variable]]&amp;"_vec  =   normrnd("&amp;Transform[[#This Row],[Posterior_mean]]&amp;","&amp;Transform[[#This Row],[Posterior_st.dev]]&amp;",1,H);",NA()),Transform[[#This Row],[Text from code]]&amp;";")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{38D20646-E56C-4383-9931-E6C2303BD442}" name="Set param value" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{38D20646-E56C-4383-9931-E6C2303BD442}" name="Set param value" dataDxfId="3">
       <calculatedColumnFormula>"set_param_value("&amp;"'"&amp;Transform[[#This Row],[Code Variable]]&amp;"',"&amp;Transform[[#This Row],[Code Variable]]&amp;"_vec(h));"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -916,8 +928,8 @@
     <sortCondition ref="F5:F68"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{C00F82CA-3FE7-4295-AB17-0A5A4462112F}" uniqueName="1" name="Parameter" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0BB5B8CF-D982-4F6C-AE49-DC4584E943C1}" uniqueName="2" name="Prior_Distrib" queryTableFieldId="2" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{C00F82CA-3FE7-4295-AB17-0A5A4462112F}" uniqueName="1" name="Parameter" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{0BB5B8CF-D982-4F6C-AE49-DC4584E943C1}" uniqueName="2" name="Prior_Distrib" queryTableFieldId="2" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{363CA048-3767-4F80-B90B-E49B9BD60F75}" uniqueName="3" name="Prior_Mean" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{4F49F219-DA42-47DE-B43C-9BB0C14BFF94}" uniqueName="4" name="Prior_st.dev" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{9BB42276-9344-47A6-97BA-1D483CA77B54}" uniqueName="5" name="Posterior_Mean" queryTableFieldId="5"/>
@@ -1226,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFA16B9-95AD-47CF-84E9-3F1C4429F643}">
   <dimension ref="B6:V57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10:U57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="T3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11:V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1340,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>1</v>
       </c>
@@ -1498,7 +1510,7 @@
         <v>set_param_value('GSLAG',GSLAG_vec(h));</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1583,7 +1595,7 @@
         <v>set_param_value('GVECM',GVECM_vec(h));</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
@@ -1668,7 +1680,7 @@
         <v>set_param_value('IGVECM',IGVECM_vec(h));</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>set_param_value('A2E',A2E_vec(h));</v>
       </c>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1838,7 +1850,7 @@
         <v>set_param_value('GAMIE',GAMIE_vec(h));</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1935,7 @@
         <v>set_param_value('GAMI2E',GAMI2E_vec(h));</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2020,7 @@
         <v>set_param_value('GAMLE',GAMLE_vec(h));</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>set_param_value('GAMPE',GAMPE_vec(h));</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>set_param_value('GAMPME',GAMPME_vec(h));</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>7</v>
       </c>
@@ -2263,7 +2275,7 @@
         <v>set_param_value('GAMPXE',GAMPXE_vec(h));</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
@@ -2348,7 +2360,7 @@
         <v>set_param_value('GAMWE',GAMWE_vec(h));</v>
       </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2445,7 @@
         <v>set_param_value('HABE',HABE_vec(h));</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>12</v>
       </c>
@@ -2518,7 +2530,7 @@
         <v>set_param_value('HABLE',HABLE_vec(h));</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>13</v>
       </c>
@@ -2603,7 +2615,7 @@
         <v>set_param_value('IG1E',IG1E_vec(h));</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
@@ -2688,7 +2700,7 @@
         <v>set_param_value('IGSLAG',IGSLAG_vec(h));</v>
       </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +2785,7 @@
         <v>set_param_value('ILAGE',ILAGE_vec(h));</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>17</v>
       </c>
@@ -2858,7 +2870,7 @@
         <v>set_param_value('KAPPAE',KAPPAE_vec(h));</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
@@ -2943,7 +2955,7 @@
         <v>set_param_value('RHOCE',RHOCE_vec(h));</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>19</v>
       </c>
@@ -3028,7 +3040,7 @@
         <v>set_param_value('RHOETA',RHOETA_vec(h));</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
@@ -3113,7 +3125,7 @@
         <v>set_param_value('RHOETAM',RHOETAM_vec(h));</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>21</v>
       </c>
@@ -3198,7 +3210,7 @@
         <v>set_param_value('RHOETAX',RHOETAX_vec(h));</v>
       </c>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>22</v>
       </c>
@@ -3283,7 +3295,7 @@
         <v>set_param_value('RHOGE',RHOGE_vec(h));</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
         <v>23</v>
       </c>
@@ -3368,7 +3380,7 @@
         <v>set_param_value('RHOIG',RHOIG_vec(h));</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -3453,7 +3465,7 @@
         <v>set_param_value('RHOLE',RHOLE_vec(h));</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>25</v>
       </c>
@@ -3538,7 +3550,7 @@
         <v>set_param_value('RHOL0',RHOL0_vec(h));</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
@@ -3623,7 +3635,7 @@
         <v>set_param_value('RHOPCPM',RHOPCPM_vec(h));</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
@@ -3708,7 +3720,7 @@
         <v>set_param_value('RHOPWPX',RHOPWPX_vec(h));</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>28</v>
       </c>
@@ -3793,7 +3805,7 @@
         <v>set_param_value('RHORPE',RHORPE_vec(h));</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>29</v>
       </c>
@@ -3878,7 +3890,7 @@
         <v>set_param_value('RHORPK',RHORPK_vec(h));</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>30</v>
       </c>
@@ -3963,7 +3975,7 @@
         <v>set_param_value('RHOUCAP0',RHOUCAP0_vec(h));</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>31</v>
       </c>
@@ -4048,7 +4060,7 @@
         <v>set_param_value('RPREME',RPREME_vec(h));</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>32</v>
       </c>
@@ -4133,7 +4145,7 @@
         <v>set_param_value('RPREMK',RPREMK_vec(h));</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
         <v>33</v>
       </c>
@@ -4303,7 +4315,7 @@
         <v>set_param_value('SFPE',SFPE_vec(h));</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="1" t="s">
         <v>35</v>
       </c>
@@ -4558,7 +4570,7 @@
         <v>set_param_value('SFWE',SFWE_vec(h));</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
@@ -4728,7 +4740,7 @@
         <v>set_param_value('SIGEXE',SIGEXE_vec(h));</v>
       </c>
     </row>
-    <row r="50" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="1" t="s">
         <v>40</v>
       </c>
@@ -4813,7 +4825,7 @@
         <v>set_param_value('SIGIME',SIGIME_vec(h));</v>
       </c>
     </row>
-    <row r="51" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>41</v>
       </c>
@@ -4983,7 +4995,7 @@
         <v>set_param_value('TINFE',TINFE_vec(h));</v>
       </c>
     </row>
-    <row r="53" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>43</v>
       </c>
@@ -5068,7 +5080,7 @@
         <v>set_param_value('TR1E',TR1E_vec(h));</v>
       </c>
     </row>
-    <row r="54" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
@@ -5153,7 +5165,7 @@
         <v>set_param_value('RHOTR',RHOTR_vec(h));</v>
       </c>
     </row>
-    <row r="55" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>45</v>
       </c>
@@ -5238,7 +5250,7 @@
         <v>set_param_value('TYE1',TYE1_vec(h));</v>
       </c>
     </row>
-    <row r="56" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="1" t="s">
         <v>46</v>
       </c>
@@ -5323,7 +5335,7 @@
         <v>set_param_value('TYE2',TYE2_vec(h));</v>
       </c>
     </row>
-    <row r="57" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
         <v>47</v>
       </c>
